--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11950,6 +11950,237 @@
         <v>366.7842857142857</v>
       </c>
       <c r="I371" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>345.4333333333333</v>
+      </c>
+      <c r="C372" t="n">
+        <v>366.4945454545455</v>
+      </c>
+      <c r="D372" t="n">
+        <v>367.0766666666667</v>
+      </c>
+      <c r="E372" t="n">
+        <v>372.0145454545454</v>
+      </c>
+      <c r="F372" t="n">
+        <v>370.4366666666667</v>
+      </c>
+      <c r="G372" t="n">
+        <v>355.1755555555555</v>
+      </c>
+      <c r="H372" t="n">
+        <v>370.6714285714286</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>334.4466666666667</v>
+      </c>
+      <c r="C373" t="n">
+        <v>356.1609090909091</v>
+      </c>
+      <c r="D373" t="n">
+        <v>357.1433333333333</v>
+      </c>
+      <c r="E373" t="n">
+        <v>359.0309090909091</v>
+      </c>
+      <c r="F373" t="n">
+        <v>359.7033333333333</v>
+      </c>
+      <c r="G373" t="n">
+        <v>347.4344444444445</v>
+      </c>
+      <c r="H373" t="n">
+        <v>358.0742857142857</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>344.1033333333333</v>
+      </c>
+      <c r="C374" t="n">
+        <v>362.2027272727273</v>
+      </c>
+      <c r="D374" t="n">
+        <v>364.6466666666667</v>
+      </c>
+      <c r="E374" t="n">
+        <v>369.0027272727273</v>
+      </c>
+      <c r="F374" t="n">
+        <v>366.2966666666667</v>
+      </c>
+      <c r="G374" t="n">
+        <v>354.0588888888889</v>
+      </c>
+      <c r="H374" t="n">
+        <v>364.5728571428572</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>339.4066666666666</v>
+      </c>
+      <c r="C375" t="n">
+        <v>367.4263636363637</v>
+      </c>
+      <c r="D375" t="n">
+        <v>363.2933333333333</v>
+      </c>
+      <c r="E375" t="n">
+        <v>364.1963636363636</v>
+      </c>
+      <c r="F375" t="n">
+        <v>368.4333333333333</v>
+      </c>
+      <c r="G375" t="n">
+        <v>362.2677777777778</v>
+      </c>
+      <c r="H375" t="n">
+        <v>363.7428571428572</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>329.8633333333333</v>
+      </c>
+      <c r="C376" t="n">
+        <v>352.5736363636364</v>
+      </c>
+      <c r="D376" t="n">
+        <v>350.5366666666667</v>
+      </c>
+      <c r="E376" t="n">
+        <v>353.5936363636364</v>
+      </c>
+      <c r="F376" t="n">
+        <v>351.8366666666667</v>
+      </c>
+      <c r="G376" t="n">
+        <v>333.5155555555555</v>
+      </c>
+      <c r="H376" t="n">
+        <v>335.8357142857143</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>343.4866666666667</v>
+      </c>
+      <c r="C377" t="n">
+        <v>369.97</v>
+      </c>
+      <c r="D377" t="n">
+        <v>364.7633333333333</v>
+      </c>
+      <c r="E377" t="n">
+        <v>374.35</v>
+      </c>
+      <c r="F377" t="n">
+        <v>372.9433333333333</v>
+      </c>
+      <c r="G377" t="n">
+        <v>363.9377777777778</v>
+      </c>
+      <c r="H377" t="n">
+        <v>363.7214285714285</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>338.7033333333333</v>
+      </c>
+      <c r="C378" t="n">
+        <v>363.7463636363637</v>
+      </c>
+      <c r="D378" t="n">
+        <v>360.0866666666667</v>
+      </c>
+      <c r="E378" t="n">
+        <v>359.0563636363636</v>
+      </c>
+      <c r="F378" t="n">
+        <v>364.4266666666667</v>
+      </c>
+      <c r="G378" t="n">
+        <v>348.3788888888889</v>
+      </c>
+      <c r="H378" t="n">
+        <v>353.7471428571428</v>
+      </c>
+      <c r="I378" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11966,7 +12197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15864,6 +16095,76 @@
       </c>
       <c r="B389" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -16032,28 +16333,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1787177099998162</v>
+        <v>-0.04944353253432476</v>
       </c>
       <c r="J2" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004796840032654348</v>
+        <v>0.0003691249987352041</v>
       </c>
       <c r="M2" t="n">
-        <v>16.08966988478582</v>
+        <v>16.44523399035601</v>
       </c>
       <c r="N2" t="n">
-        <v>338.5274829078056</v>
+        <v>348.2115585465339</v>
       </c>
       <c r="O2" t="n">
-        <v>18.39911636214646</v>
+        <v>18.66042760888758</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4995537647679</v>
+        <v>314.25997248801</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16109,28 +16410,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03229225937021735</v>
+        <v>0.06471671348036122</v>
       </c>
       <c r="J3" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004073953205788738</v>
+        <v>0.001686521197189927</v>
       </c>
       <c r="M3" t="n">
-        <v>8.758482312201892</v>
+        <v>8.741133037959445</v>
       </c>
       <c r="N3" t="n">
-        <v>133.7846911559219</v>
+        <v>132.8917226074752</v>
       </c>
       <c r="O3" t="n">
-        <v>11.56653323843933</v>
+        <v>11.5278672185047</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0096165669276</v>
+        <v>353.6987400339358</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16186,28 +16487,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03650117163517466</v>
+        <v>0.05041447738115686</v>
       </c>
       <c r="J4" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009362876654284147</v>
+        <v>0.001847455901182515</v>
       </c>
       <c r="M4" t="n">
-        <v>6.656246508811538</v>
+        <v>6.629776413956114</v>
       </c>
       <c r="N4" t="n">
-        <v>73.96717248134264</v>
+        <v>73.19376419272488</v>
       </c>
       <c r="O4" t="n">
-        <v>8.600416994619659</v>
+        <v>8.555335422572565</v>
       </c>
       <c r="P4" t="n">
-        <v>356.8484923581108</v>
+        <v>356.7134591628511</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16263,28 +16564,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08293070279031607</v>
+        <v>0.09280338492953161</v>
       </c>
       <c r="J5" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003672749175217649</v>
+        <v>0.004757631023847853</v>
       </c>
       <c r="M5" t="n">
-        <v>7.785985602903628</v>
+        <v>7.757382449626331</v>
       </c>
       <c r="N5" t="n">
-        <v>94.9541747944906</v>
+        <v>94.08916544049345</v>
       </c>
       <c r="O5" t="n">
-        <v>9.744443277811749</v>
+        <v>9.699956981373342</v>
       </c>
       <c r="P5" t="n">
-        <v>360.0968677858931</v>
+        <v>360.0003106291604</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16340,28 +16641,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00904760242652178</v>
+        <v>0.01606534054360697</v>
       </c>
       <c r="J6" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>3.555563489066049e-05</v>
+        <v>0.0001156090074250216</v>
       </c>
       <c r="M6" t="n">
-        <v>8.399432714401554</v>
+        <v>8.374548992481706</v>
       </c>
       <c r="N6" t="n">
-        <v>120.6916717807051</v>
+        <v>119.8012983904324</v>
       </c>
       <c r="O6" t="n">
-        <v>10.98597614145894</v>
+        <v>10.94537794644079</v>
       </c>
       <c r="P6" t="n">
-        <v>359.0015196146669</v>
+        <v>358.7584776419436</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16417,28 +16718,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01961806901291525</v>
+        <v>0.009636522946992691</v>
       </c>
       <c r="J7" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001616926245514572</v>
+        <v>3.994316277255994e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.573861039964941</v>
+        <v>8.619232410714472</v>
       </c>
       <c r="N7" t="n">
-        <v>121.0652488432078</v>
+        <v>121.3193398174806</v>
       </c>
       <c r="O7" t="n">
-        <v>11.00296545678517</v>
+        <v>11.01450588167624</v>
       </c>
       <c r="P7" t="n">
-        <v>345.9342682575477</v>
+        <v>345.6465702985254</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16494,28 +16795,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02133377403902265</v>
+        <v>0.0007502532928527802</v>
       </c>
       <c r="J8" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000160764859705842</v>
+        <v>2.042381748168509e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>9.334279358990436</v>
+        <v>9.342410833642248</v>
       </c>
       <c r="N8" t="n">
-        <v>145.4928426916448</v>
+        <v>145.2851523536609</v>
       </c>
       <c r="O8" t="n">
-        <v>12.06204139818981</v>
+        <v>12.05342907033766</v>
       </c>
       <c r="P8" t="n">
-        <v>353.9897563538161</v>
+        <v>353.7751347744502</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16552,7 +16853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32521,6 +32822,335 @@
         </is>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-36.73775572070172,175.81110042643627</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-36.737637779404196,175.8102178628882</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-36.73765963529074,175.80934210804554</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-36.73775025556877,175.80846625363975</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-36.73792102944292,175.8076220649957</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-36.73811618319991,175.80674721592086</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>-36.738600463165795,175.80606462776976</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-36.737664944383376,175.81114940453818</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-36.73754622568766,175.8102387457497</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-36.737570351866175,175.80933478230804</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-36.737635387531846,175.80843892748678</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-36.73783150212526,175.80757670711378</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-36.73805560253689,175.80670431249234</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-36.73850390897189,175.8059905622976</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-36.73774473170047,175.81110635552668</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-36.737599754851374,175.81022653606917</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-36.7376377938089,175.8093403159418</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-36.73772360959542,175.80845991477528</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-36.737886497480254,175.8076045697995</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-36.738107444351314,175.80674102703387</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>-36.738553719029625,175.8060287709189</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-36.73770592592721,175.81112729307858</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-36.737646035105605,175.81021597980939</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-36.73762562969138,175.8093393178709</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-36.73768108702812,175.80844979900638</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-36.73790431953227,175.80761359912174</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-36.738171685748576,175.8067865230846</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-36.73854735727104,175.80602389089654</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-36.737627075010266,175.81116983681463</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-36.73751444324965,175.8102459951258</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-36.737510969399246,175.80932990996828</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-36.737587283220215,175.8084274838984</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-36.73776588581572,175.80754346351938</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-36.73794667555298,175.80662717024632</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-36.73833345531695,175.80585981007496</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>-36.737739636549435,175.8111091046031</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-36.73766857115674,175.81021083946172</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>-36.737638842439715,175.8093404019824</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-36.737770917658764,175.80847116898963</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-36.737941937682756,175.80763265790839</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-36.73818475488782,175.80679577872013</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-36.738547193025994,175.8060237649063</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-36.737700114700424,175.8111304285087</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-36.737613431125666,175.81022341659082</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-36.7375968073241,175.8093369529855</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-36.737635612731744,175.80843898105988</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-36.73787089970856,175.8075966673854</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-36.73806299360488,175.806709546867</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-36.738470742407365,175.80596512070915</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -16178,7 +16178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16269,35 +16269,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16356,27 +16361,28 @@
       <c r="P2" t="n">
         <v>314.25997248801</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.81264030128193 -36.73490160180393, 175.8085397140819 -36.74250145439922)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8126403012819</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.73490160180393</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8085397140819</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.74250145439922</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8105900076819</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.73870152810157</v>
       </c>
     </row>
@@ -16433,27 +16439,28 @@
       <c r="P3" t="n">
         <v>353.6987400339358</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.81095847194857 -36.7343907176508, 175.80909997984028 -36.74253847495541)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8109584719486</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.7343907176508</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8090999798403</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.74253847495541</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8100292258944</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.7384645963031</v>
       </c>
     </row>
@@ -16510,27 +16517,28 @@
       <c r="P4" t="n">
         <v>356.7134591628511</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.80907140832656 -36.73436025165835, 175.80974961812734 -36.74262576028192)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8090714083266</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.73436025165835</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8097496181273</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.74262576028192</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.809410513227</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.73849300597013</v>
       </c>
     </row>
@@ -16587,27 +16595,28 @@
       <c r="P5" t="n">
         <v>360.0003106291604</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.80768332573402 -36.734458986502105, 175.80961887967382 -36.74259506248658)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.807683325734</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.7344589865021</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8096188796738</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.74259506248658</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8086511027039</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.73852702449435</v>
       </c>
     </row>
@@ -16664,27 +16673,28 @@
       <c r="P6" t="n">
         <v>358.7584776419436</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.80605670483382 -36.73483118375024, 175.80994364129904 -36.7425030293816)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8060567048338</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.73483118375024</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.809943641299</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.7425030293816</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8080001730664</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.73866710656592</v>
       </c>
     </row>
@@ -16741,27 +16751,28 @@
       <c r="P7" t="n">
         <v>345.6465702985254</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.80477880417928 -36.73533661822912, 175.8098773198477 -36.74253564822741)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8047788041793</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.73533661822912</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8098773198477</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.74253564822741</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8073280620135</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.73893613322826</v>
       </c>
     </row>
@@ -16818,27 +16829,28 @@
       <c r="P8" t="n">
         <v>353.7751347744502</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.80388532807007 -36.73575932899854, 175.80929432196746 -36.742810503400364)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8038853280701</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.73575932899854</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8092943219675</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.74281050340036</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8065898250188</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.73928491619945</v>
       </c>
     </row>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12181,6 +12181,171 @@
         <v>353.7471428571428</v>
       </c>
       <c r="I378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>322.0566666666667</v>
+      </c>
+      <c r="C379" t="n">
+        <v>357.1727272727272</v>
+      </c>
+      <c r="D379" t="n">
+        <v>360.6733333333333</v>
+      </c>
+      <c r="E379" t="n">
+        <v>368.1527272727273</v>
+      </c>
+      <c r="F379" t="n">
+        <v>365.8133333333333</v>
+      </c>
+      <c r="G379" t="n">
+        <v>354.5077777777778</v>
+      </c>
+      <c r="H379" t="n">
+        <v>360.3585714285715</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>305.6266666666667</v>
+      </c>
+      <c r="C380" t="n">
+        <v>351.0672727272727</v>
+      </c>
+      <c r="D380" t="n">
+        <v>357.0133333333333</v>
+      </c>
+      <c r="E380" t="n">
+        <v>369.4572727272728</v>
+      </c>
+      <c r="F380" t="n">
+        <v>367.6133333333333</v>
+      </c>
+      <c r="G380" t="n">
+        <v>350.6811111111111</v>
+      </c>
+      <c r="H380" t="n">
+        <v>356.9771428571428</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>292.71</v>
+      </c>
+      <c r="C381" t="n">
+        <v>351.7909090909091</v>
+      </c>
+      <c r="D381" t="n">
+        <v>359.52</v>
+      </c>
+      <c r="E381" t="n">
+        <v>367.2509090909091</v>
+      </c>
+      <c r="F381" t="n">
+        <v>369.01</v>
+      </c>
+      <c r="G381" t="n">
+        <v>352.4966666666667</v>
+      </c>
+      <c r="H381" t="n">
+        <v>357.1771428571428</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>302.5733333333333</v>
+      </c>
+      <c r="C382" t="n">
+        <v>347.2063636363636</v>
+      </c>
+      <c r="D382" t="n">
+        <v>362.1066666666667</v>
+      </c>
+      <c r="E382" t="n">
+        <v>367.4863636363637</v>
+      </c>
+      <c r="F382" t="n">
+        <v>366.0966666666667</v>
+      </c>
+      <c r="G382" t="n">
+        <v>360.0788888888889</v>
+      </c>
+      <c r="H382" t="n">
+        <v>352.6671428571428</v>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>301.1866666666667</v>
+      </c>
+      <c r="C383" t="n">
+        <v>342.7809090909091</v>
+      </c>
+      <c r="D383" t="n">
+        <v>354.5533333333333</v>
+      </c>
+      <c r="E383" t="n">
+        <v>375.8809090909091</v>
+      </c>
+      <c r="F383" t="n">
+        <v>363.3133333333333</v>
+      </c>
+      <c r="G383" t="n">
+        <v>345.7477777777778</v>
+      </c>
+      <c r="H383" t="n">
+        <v>355.3971428571429</v>
+      </c>
+      <c r="I383" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12197,7 +12362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16165,6 +16330,56 @@
       </c>
       <c r="B396" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -16338,28 +16553,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04944353253432476</v>
+        <v>-0.07541872325200147</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003691249987352041</v>
+        <v>0.0008832510891726431</v>
       </c>
       <c r="M2" t="n">
-        <v>16.44523399035601</v>
+        <v>16.35278363827032</v>
       </c>
       <c r="N2" t="n">
-        <v>348.2115585465339</v>
+        <v>345.2059081135947</v>
       </c>
       <c r="O2" t="n">
-        <v>18.66042760888758</v>
+        <v>18.57971765430236</v>
       </c>
       <c r="P2" t="n">
-        <v>314.25997248801</v>
+        <v>314.5125473884249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16416,28 +16631,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06471671348036122</v>
+        <v>0.04919706205301243</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001686521197189927</v>
+        <v>0.001001293423508631</v>
       </c>
       <c r="M3" t="n">
-        <v>8.741133037959445</v>
+        <v>8.704765346569921</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8917226074752</v>
+        <v>131.6792234291605</v>
       </c>
       <c r="O3" t="n">
-        <v>11.5278672185047</v>
+        <v>11.47515679322773</v>
       </c>
       <c r="P3" t="n">
-        <v>353.6987400339358</v>
+        <v>353.8496959576976</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16494,28 +16709,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05041447738115686</v>
+        <v>0.0526721951318582</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001847455901182515</v>
+        <v>0.002078201768079824</v>
       </c>
       <c r="M4" t="n">
-        <v>6.629776413956114</v>
+        <v>6.567507693542718</v>
       </c>
       <c r="N4" t="n">
-        <v>73.19376419272488</v>
+        <v>72.20317546978463</v>
       </c>
       <c r="O4" t="n">
-        <v>8.555335422572565</v>
+        <v>8.497245169452546</v>
       </c>
       <c r="P4" t="n">
-        <v>356.7134591628511</v>
+        <v>356.6913431841622</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16572,28 +16787,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09280338492953161</v>
+        <v>0.1149471593849432</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004757631023847853</v>
+        <v>0.007449833341947043</v>
       </c>
       <c r="M5" t="n">
-        <v>7.757382449626331</v>
+        <v>7.742719512719289</v>
       </c>
       <c r="N5" t="n">
-        <v>94.08916544049345</v>
+        <v>93.57923540678223</v>
       </c>
       <c r="O5" t="n">
-        <v>9.699956981373342</v>
+        <v>9.67363610059745</v>
       </c>
       <c r="P5" t="n">
-        <v>360.0003106291604</v>
+        <v>359.7805896971719</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16650,28 +16865,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01606534054360697</v>
+        <v>0.03679649984614488</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001156090074250216</v>
+        <v>0.0006212592551824159</v>
       </c>
       <c r="M6" t="n">
-        <v>8.374548992481706</v>
+        <v>8.341450848437008</v>
       </c>
       <c r="N6" t="n">
-        <v>119.8012983904324</v>
+        <v>118.8066442217967</v>
       </c>
       <c r="O6" t="n">
-        <v>10.94537794644079</v>
+        <v>10.89984606413305</v>
       </c>
       <c r="P6" t="n">
-        <v>358.7584776419436</v>
+        <v>358.5552829104466</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16728,28 +16943,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009636522946992691</v>
+        <v>0.03044170334278738</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K7" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>3.994316277255994e-05</v>
+        <v>0.0004083787686279816</v>
       </c>
       <c r="M7" t="n">
-        <v>8.619232410714472</v>
+        <v>8.598764814305474</v>
       </c>
       <c r="N7" t="n">
-        <v>121.3193398174806</v>
+        <v>120.4662288941464</v>
       </c>
       <c r="O7" t="n">
-        <v>11.01450588167624</v>
+        <v>10.97571086053867</v>
       </c>
       <c r="P7" t="n">
-        <v>345.6465702985254</v>
+        <v>345.439518397905</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16806,28 +17021,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007502532928527802</v>
+        <v>0.008858474411618911</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K8" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L8" t="n">
-        <v>2.042381748168509e-07</v>
+        <v>2.937656707735492e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>9.342410833642248</v>
+        <v>9.24541770646672</v>
       </c>
       <c r="N8" t="n">
-        <v>145.2851523536609</v>
+        <v>143.2862259837123</v>
       </c>
       <c r="O8" t="n">
-        <v>12.05342907033766</v>
+        <v>11.97022247010106</v>
       </c>
       <c r="P8" t="n">
-        <v>353.7751347744502</v>
+        <v>353.6953397185871</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16865,7 +17080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33163,6 +33378,241 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-36.73756257313323,175.8112046385098</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-36.737555190171506,175.81023670100586</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-36.737602080439125,175.80933738564624</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-36.73771608952736,175.80845812581202</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-36.7378824659707,175.80760252728572</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-36.73811095728155,175.80674351490467</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-36.73852141749904,175.8060039928448</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-36.7374268217175,175.8112778823746</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-36.73750109720297,175.81024903927434</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-36.737569183391805,175.80933468643445</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-36.73772763102215,175.8084608714403</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-36.73789747986811,175.8076101338899</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-36.73808101041881,175.80672230642935</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-36.738495499622374,175.8059841116055</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-36.7373200988805,175.8113354638569</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-36.737507508460155,175.81024757690736</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-36.73759171397434,175.8093365350746</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-36.7377081110166,175.8084562277894</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-36.737909129539915,175.80761603605345</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-36.73809521865798,175.80673236875262</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-36.73849703257676,175.8059852875128</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-36.737401593817964,175.81129149390776</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-36.73746689040714,175.8102568416231</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-36.737614963617865,175.8093384427155</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-36.737710194115685,175.80845672334164</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-36.73788482926942,175.80760372462137</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-36.73815455587077,175.80677439161784</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>-36.73846246445231,175.80595877081473</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-36.73739013660552,175.8112976755619</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-36.73742768186367,175.81026578483068</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-36.73754707226144,175.80933287221194</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-36.737784461823416,175.80847439104232</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-36.73786161333435,175.8075919625629</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-36.738042402958314,175.80669496451762</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>-36.73848338928236,175.8059748219395</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12346,6 +12346,39 @@
         <v>355.3971428571429</v>
       </c>
       <c r="I383" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>295.3833333333333</v>
+      </c>
+      <c r="C384" t="n">
+        <v>360.1545454545454</v>
+      </c>
+      <c r="D384" t="n">
+        <v>359.8666666666667</v>
+      </c>
+      <c r="E384" t="n">
+        <v>368.3045454545455</v>
+      </c>
+      <c r="F384" t="n">
+        <v>367.8266666666667</v>
+      </c>
+      <c r="G384" t="n">
+        <v>348.4455555555556</v>
+      </c>
+      <c r="H384" t="n">
+        <v>366.8714285714286</v>
+      </c>
+      <c r="I384" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12362,7 +12395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16380,6 +16413,26 @@
       </c>
       <c r="B401" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -16553,28 +16606,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07541872325200147</v>
+        <v>-0.08631513290439261</v>
       </c>
       <c r="J2" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008832510891726431</v>
+        <v>0.001161619747699905</v>
       </c>
       <c r="M2" t="n">
-        <v>16.35278363827032</v>
+        <v>16.34668808169718</v>
       </c>
       <c r="N2" t="n">
-        <v>345.2059081135947</v>
+        <v>345.0424817016559</v>
       </c>
       <c r="O2" t="n">
-        <v>18.57971765430236</v>
+        <v>18.57531915477244</v>
       </c>
       <c r="P2" t="n">
-        <v>314.5125473884249</v>
+        <v>314.6188391491144</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16631,28 +16684,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04919706205301243</v>
+        <v>0.05211743180097873</v>
       </c>
       <c r="J3" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001001293423508631</v>
+        <v>0.00113000723979706</v>
       </c>
       <c r="M3" t="n">
-        <v>8.704765346569921</v>
+        <v>8.693333537782369</v>
       </c>
       <c r="N3" t="n">
-        <v>131.6792234291605</v>
+        <v>131.3669950026667</v>
       </c>
       <c r="O3" t="n">
-        <v>11.47515679322773</v>
+        <v>11.46154418054857</v>
       </c>
       <c r="P3" t="n">
-        <v>353.8496959576976</v>
+        <v>353.8211953851358</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16709,28 +16762,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0526721951318582</v>
+        <v>0.05374797059248711</v>
       </c>
       <c r="J4" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002078201768079824</v>
+        <v>0.002177093238537986</v>
       </c>
       <c r="M4" t="n">
-        <v>6.567507693542718</v>
+        <v>6.552936280589624</v>
       </c>
       <c r="N4" t="n">
-        <v>72.20317546978463</v>
+        <v>71.99501380860585</v>
       </c>
       <c r="O4" t="n">
-        <v>8.497245169452546</v>
+        <v>8.484987555005949</v>
       </c>
       <c r="P4" t="n">
-        <v>356.6913431841622</v>
+        <v>356.6807002109198</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16787,28 +16840,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1149471593849432</v>
+        <v>0.11834129158705</v>
       </c>
       <c r="J5" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007449833341947043</v>
+        <v>0.007936036645485145</v>
       </c>
       <c r="M5" t="n">
-        <v>7.742719512719289</v>
+        <v>7.73485491370513</v>
       </c>
       <c r="N5" t="n">
-        <v>93.57923540678223</v>
+        <v>93.387898881179</v>
       </c>
       <c r="O5" t="n">
-        <v>9.67363610059745</v>
+        <v>9.663741453556122</v>
       </c>
       <c r="P5" t="n">
-        <v>359.7805896971719</v>
+        <v>359.7467513791521</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16865,28 +16918,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03679649984614488</v>
+        <v>0.04160203227457196</v>
       </c>
       <c r="J6" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006212592551824159</v>
+        <v>0.0007975127300537954</v>
       </c>
       <c r="M6" t="n">
-        <v>8.341450848437008</v>
+        <v>8.338324870245108</v>
       </c>
       <c r="N6" t="n">
-        <v>118.8066442217967</v>
+        <v>118.6576115119652</v>
       </c>
       <c r="O6" t="n">
-        <v>10.89984606413305</v>
+        <v>10.89300745946523</v>
       </c>
       <c r="P6" t="n">
-        <v>358.5552829104466</v>
+        <v>358.5079031495061</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16943,28 +16996,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03044170334278738</v>
+        <v>0.03180495958510215</v>
       </c>
       <c r="J7" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K7" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004083787686279816</v>
+        <v>0.000448614468251618</v>
       </c>
       <c r="M7" t="n">
-        <v>8.598764814305474</v>
+        <v>8.579507413954996</v>
       </c>
       <c r="N7" t="n">
-        <v>120.4662288941464</v>
+        <v>120.1095657815527</v>
       </c>
       <c r="O7" t="n">
-        <v>10.97571086053867</v>
+        <v>10.95945097993292</v>
       </c>
       <c r="P7" t="n">
-        <v>345.439518397905</v>
+        <v>345.4258693558832</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17021,28 +17074,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008858474411618911</v>
+        <v>0.01661214947383211</v>
       </c>
       <c r="J8" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K8" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L8" t="n">
-        <v>2.937656707735492e-05</v>
+        <v>0.0001036027231595682</v>
       </c>
       <c r="M8" t="n">
-        <v>9.24541770646672</v>
+        <v>9.253086342027773</v>
       </c>
       <c r="N8" t="n">
-        <v>143.2862259837123</v>
+        <v>143.3551527607089</v>
       </c>
       <c r="O8" t="n">
-        <v>11.97022247010106</v>
+        <v>11.97310121734168</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6953397185871</v>
+        <v>353.6184775187042</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17080,7 +17133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33613,6 +33666,53 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-36.73734218706696,175.81132354635997</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-36.737581608416654,175.81023067516355</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-36.73759482990594,175.80933679073775</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-36.7377174326839,175.80845844533806</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-36.73789925929295,175.80761103541357</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-36.73806351532732,175.80670991635233</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-36.73857133704828,175.8060422854775</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12379,6 +12379,70 @@
         <v>366.8714285714286</v>
       </c>
       <c r="I384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>306.4066666666667</v>
+      </c>
+      <c r="C385" t="n">
+        <v>341.4245454545455</v>
+      </c>
+      <c r="D385" t="n">
+        <v>360.3833333333333</v>
+      </c>
+      <c r="E385" t="n">
+        <v>367.6645454545454</v>
+      </c>
+      <c r="F385" t="n">
+        <v>364.1433333333333</v>
+      </c>
+      <c r="G385" t="n">
+        <v>346.0744444444445</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>288.2133333333333</v>
+      </c>
+      <c r="C386" t="n">
+        <v>349.8818181818182</v>
+      </c>
+      <c r="D386" t="n">
+        <v>355.6766666666667</v>
+      </c>
+      <c r="E386" t="n">
+        <v>362.7818181818182</v>
+      </c>
+      <c r="F386" t="n">
+        <v>357.9166666666667</v>
+      </c>
+      <c r="G386" t="n">
+        <v>338.3255555555555</v>
+      </c>
+      <c r="H386" t="n">
+        <v>338.6885714285714</v>
+      </c>
+      <c r="I386" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12395,7 +12459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16433,6 +16497,26 @@
       </c>
       <c r="B403" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -16606,28 +16690,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08631513290439261</v>
+        <v>-0.1052006462206608</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001161619747699905</v>
+        <v>0.001739071519341384</v>
       </c>
       <c r="M2" t="n">
-        <v>16.34668808169718</v>
+        <v>16.32213630757863</v>
       </c>
       <c r="N2" t="n">
-        <v>345.0424817016559</v>
+        <v>344.800191096542</v>
       </c>
       <c r="O2" t="n">
-        <v>18.57531915477244</v>
+        <v>18.56879616713324</v>
       </c>
       <c r="P2" t="n">
-        <v>314.6188391491144</v>
+        <v>314.8037640974212</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16684,28 +16768,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05211743180097873</v>
+        <v>0.04123699922176545</v>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00113000723979706</v>
+        <v>0.0007132652025229058</v>
       </c>
       <c r="M3" t="n">
-        <v>8.693333537782369</v>
+        <v>8.699638954889851</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3669950026667</v>
+        <v>131.2227288288533</v>
       </c>
       <c r="O3" t="n">
-        <v>11.46154418054857</v>
+        <v>11.45524896407115</v>
       </c>
       <c r="P3" t="n">
-        <v>353.8211953851358</v>
+        <v>353.9277434715577</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16762,28 +16846,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05374797059248711</v>
+        <v>0.0537076412212244</v>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002177093238537986</v>
+        <v>0.002200155575577289</v>
       </c>
       <c r="M4" t="n">
-        <v>6.552936280589624</v>
+        <v>6.527725193037796</v>
       </c>
       <c r="N4" t="n">
-        <v>71.99501380860585</v>
+        <v>71.59589638713359</v>
       </c>
       <c r="O4" t="n">
-        <v>8.484987555005949</v>
+        <v>8.461435834841129</v>
       </c>
       <c r="P4" t="n">
-        <v>356.6807002109198</v>
+        <v>356.6811152658543</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16840,28 +16924,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.11834129158705</v>
+        <v>0.1212660969908876</v>
       </c>
       <c r="J5" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007936036645485145</v>
+        <v>0.008431315453667931</v>
       </c>
       <c r="M5" t="n">
-        <v>7.73485491370513</v>
+        <v>7.701706333600139</v>
       </c>
       <c r="N5" t="n">
-        <v>93.387898881179</v>
+        <v>92.89332168892456</v>
       </c>
       <c r="O5" t="n">
-        <v>9.663741453556122</v>
+        <v>9.638118161182947</v>
       </c>
       <c r="P5" t="n">
-        <v>359.7467513791521</v>
+        <v>359.7175025220859</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16918,28 +17002,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04160203227457196</v>
+        <v>0.04325656182630983</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007975127300537954</v>
+        <v>0.0008722742014751761</v>
       </c>
       <c r="M6" t="n">
-        <v>8.338324870245108</v>
+        <v>8.306520024428806</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6576115119652</v>
+        <v>118.0251306765248</v>
       </c>
       <c r="O6" t="n">
-        <v>10.89300745946523</v>
+        <v>10.86393716276584</v>
       </c>
       <c r="P6" t="n">
-        <v>358.5079031495061</v>
+        <v>358.4915482190266</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16996,28 +17080,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03180495958510215</v>
+        <v>0.02690607973909042</v>
       </c>
       <c r="J7" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000448614468251618</v>
+        <v>0.0003247739215090917</v>
       </c>
       <c r="M7" t="n">
-        <v>8.579507413954996</v>
+        <v>8.549743510829451</v>
       </c>
       <c r="N7" t="n">
-        <v>120.1095657815527</v>
+        <v>119.5632034690486</v>
       </c>
       <c r="O7" t="n">
-        <v>10.95945097993292</v>
+        <v>10.93449603178165</v>
       </c>
       <c r="P7" t="n">
-        <v>345.4258693558832</v>
+        <v>345.4751196503652</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17074,28 +17158,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01661214947383211</v>
+        <v>0.007428468517397578</v>
       </c>
       <c r="J8" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K8" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001036027231595682</v>
+        <v>2.075025578684997e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>9.253086342027773</v>
+        <v>9.275212000041032</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3551527607089</v>
+        <v>143.6270254922305</v>
       </c>
       <c r="O8" t="n">
-        <v>11.97310121734168</v>
+        <v>11.98444931952363</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6184775187042</v>
+        <v>353.7098928150647</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17133,7 +17217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25036,7 +25120,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-36.7376382432221,175.80934035281632</t>
+          <t>-36.737638243222094,175.80934035281632</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -26877,7 +26961,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.73745145828533,175.81026036158823</t>
+          <t>-36.737451458285335,175.81026036158823</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -33713,6 +33797,96 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-36.737433266399066,175.8112744051912</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-36.737415664783285,175.8102685258451</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-36.73759947384249,175.8093371717742</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-36.73771177051499,175.80845709835415</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-36.73786853640976,175.80759547005022</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-36.738044959398515,175.8066967749947</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-36.73728294555717,175.81135550960698</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-36.7374905943394,175.81025143491019</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-36.73755716907845,175.80933370065753</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-36.737668572347516,175.80844682186935</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-36.73781659943909,175.80756915686842</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-36.73798431784561,175.80665382854156</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>-36.73835532183582,175.80587658348483</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12443,6 +12443,39 @@
         <v>338.6885714285714</v>
       </c>
       <c r="I386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>285.8633333333333</v>
+      </c>
+      <c r="C387" t="n">
+        <v>345.8690909090909</v>
+      </c>
+      <c r="D387" t="n">
+        <v>356.3966666666667</v>
+      </c>
+      <c r="E387" t="n">
+        <v>363.2290909090909</v>
+      </c>
+      <c r="F387" t="n">
+        <v>359.6266666666667</v>
+      </c>
+      <c r="G387" t="n">
+        <v>342.7655555555555</v>
+      </c>
+      <c r="H387" t="n">
+        <v>369.2157142857143</v>
+      </c>
+      <c r="I387" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12459,7 +12492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16517,6 +16550,16 @@
       </c>
       <c r="B405" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -16690,28 +16733,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1052006462206608</v>
+        <v>-0.1215230156090777</v>
       </c>
       <c r="J2" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001739071519341384</v>
+        <v>0.00232104698968949</v>
       </c>
       <c r="M2" t="n">
-        <v>16.32213630757863</v>
+        <v>16.33752385985893</v>
       </c>
       <c r="N2" t="n">
-        <v>344.800191096542</v>
+        <v>345.8385342654411</v>
       </c>
       <c r="O2" t="n">
-        <v>18.56879616713324</v>
+        <v>18.59673450542974</v>
       </c>
       <c r="P2" t="n">
-        <v>314.8037640974212</v>
+        <v>314.9639439669139</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16768,28 +16811,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04123699922176545</v>
+        <v>0.0360369822451148</v>
       </c>
       <c r="J3" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007132652025229058</v>
+        <v>0.000547206233861175</v>
       </c>
       <c r="M3" t="n">
-        <v>8.699638954889851</v>
+        <v>8.701360016261912</v>
       </c>
       <c r="N3" t="n">
-        <v>131.2227288288533</v>
+        <v>131.0808997814485</v>
       </c>
       <c r="O3" t="n">
-        <v>11.45524896407115</v>
+        <v>11.44905672016033</v>
       </c>
       <c r="P3" t="n">
-        <v>353.9277434715577</v>
+        <v>353.9788106705669</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16846,28 +16889,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0537076412212244</v>
+        <v>0.05273983219928333</v>
       </c>
       <c r="J4" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002200155575577289</v>
+        <v>0.002134692025610785</v>
       </c>
       <c r="M4" t="n">
-        <v>6.527725193037796</v>
+        <v>6.51334389892816</v>
       </c>
       <c r="N4" t="n">
-        <v>71.59589638713359</v>
+        <v>71.38978940578669</v>
       </c>
       <c r="O4" t="n">
-        <v>8.461435834841129</v>
+        <v>8.449247860359328</v>
       </c>
       <c r="P4" t="n">
-        <v>356.6811152658543</v>
+        <v>356.6907512891788</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16924,28 +16967,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1212660969908876</v>
+        <v>0.121498411081178</v>
       </c>
       <c r="J5" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008431315453667931</v>
+        <v>0.008517497829492515</v>
       </c>
       <c r="M5" t="n">
-        <v>7.701706333600139</v>
+        <v>7.67951530227105</v>
       </c>
       <c r="N5" t="n">
-        <v>92.89332168892456</v>
+        <v>92.61312786838531</v>
       </c>
       <c r="O5" t="n">
-        <v>9.638118161182947</v>
+        <v>9.623571471568406</v>
       </c>
       <c r="P5" t="n">
-        <v>359.7175025220859</v>
+        <v>359.7151721243344</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17002,28 +17045,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04325656182630983</v>
+        <v>0.04326845920003106</v>
       </c>
       <c r="J6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008722742014751761</v>
+        <v>0.0008780785447103368</v>
       </c>
       <c r="M6" t="n">
-        <v>8.306520024428806</v>
+        <v>8.282071842308985</v>
       </c>
       <c r="N6" t="n">
-        <v>118.0251306765248</v>
+        <v>117.6769752293252</v>
       </c>
       <c r="O6" t="n">
-        <v>10.86393716276584</v>
+        <v>10.84790188143888</v>
       </c>
       <c r="P6" t="n">
-        <v>358.4915482190266</v>
+        <v>358.4914301612523</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17080,28 +17123,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02690607973909042</v>
+        <v>0.0248557523662318</v>
       </c>
       <c r="J7" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003247739215090917</v>
+        <v>0.0002788816263284977</v>
       </c>
       <c r="M7" t="n">
-        <v>8.549743510829451</v>
+        <v>8.533098733687664</v>
       </c>
       <c r="N7" t="n">
-        <v>119.5632034690486</v>
+        <v>119.2326379922517</v>
       </c>
       <c r="O7" t="n">
-        <v>10.93449603178165</v>
+        <v>10.91936985325855</v>
       </c>
       <c r="P7" t="n">
-        <v>345.4751196503652</v>
+        <v>345.4957755537333</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17158,28 +17201,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007428468517397578</v>
+        <v>0.01653776564705928</v>
       </c>
       <c r="J8" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L8" t="n">
-        <v>2.075025578684997e-05</v>
+        <v>0.0001029964452117227</v>
       </c>
       <c r="M8" t="n">
-        <v>9.275212000041032</v>
+        <v>9.289212073951257</v>
       </c>
       <c r="N8" t="n">
-        <v>143.6270254922305</v>
+        <v>143.8934053727218</v>
       </c>
       <c r="O8" t="n">
-        <v>11.98444931952363</v>
+        <v>11.99555773495846</v>
       </c>
       <c r="P8" t="n">
-        <v>353.7098928150647</v>
+        <v>353.619031270142</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17217,7 +17260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33887,6 +33930,53 @@
         </is>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-36.73726352888229,175.8113659856959</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-36.73745504246812,175.81025954405993</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-36.73756364062878,175.80933423164953</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-36.73767252943164,175.80844776322618</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-36.73783086264433,175.8075763831293</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-36.73801906457081,175.80667843622254</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-36.738589305454454,175.80605606882193</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12478,6 +12478,70 @@
       <c r="I387" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>294.5766666666667</v>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="n">
+        <v>355.5033333333333</v>
+      </c>
+      <c r="E388" t="n">
+        <v>364.8954545454546</v>
+      </c>
+      <c r="F388" t="n">
+        <v>363.8933333333333</v>
+      </c>
+      <c r="G388" t="n">
+        <v>346.1277777777778</v>
+      </c>
+      <c r="H388" t="n">
+        <v>345.6014285714285</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>291.03</v>
+      </c>
+      <c r="C389" t="n">
+        <v>345.4663636363636</v>
+      </c>
+      <c r="D389" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="E389" t="n">
+        <v>364.7363636363637</v>
+      </c>
+      <c r="F389" t="n">
+        <v>366.02</v>
+      </c>
+      <c r="G389" t="n">
+        <v>349.3233333333333</v>
+      </c>
+      <c r="H389" t="n">
+        <v>362.6842857142857</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12492,7 +12556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B406"/>
+  <dimension ref="A1:B408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16560,6 +16624,26 @@
       </c>
       <c r="B406" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -16733,28 +16817,28 @@
         <v>0.0912</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1215230156090777</v>
+        <v>-0.1450009438761627</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00232104698968949</v>
+        <v>0.003325898624853552</v>
       </c>
       <c r="M2" t="n">
-        <v>16.33752385985893</v>
+        <v>16.33015879940172</v>
       </c>
       <c r="N2" t="n">
-        <v>345.8385342654411</v>
+        <v>345.9102929043776</v>
       </c>
       <c r="O2" t="n">
-        <v>18.59673450542974</v>
+        <v>18.59866373975231</v>
       </c>
       <c r="P2" t="n">
-        <v>314.9639439669139</v>
+        <v>315.1957433394351</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16811,28 +16895,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0360369822451148</v>
+        <v>0.03062539723035447</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000547206233861175</v>
+        <v>0.0003969863833824805</v>
       </c>
       <c r="M3" t="n">
-        <v>8.701360016261912</v>
+        <v>8.704365092281893</v>
       </c>
       <c r="N3" t="n">
-        <v>131.0808997814485</v>
+        <v>130.9572213532066</v>
       </c>
       <c r="O3" t="n">
-        <v>11.44905672016033</v>
+        <v>11.4436541958068</v>
       </c>
       <c r="P3" t="n">
-        <v>353.9788106705669</v>
+        <v>354.0323404770292</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16889,28 +16973,28 @@
         <v>0.066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05273983219928333</v>
+        <v>0.0508337047971663</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002134692025610785</v>
+        <v>0.002007795164932547</v>
       </c>
       <c r="M4" t="n">
-        <v>6.51334389892816</v>
+        <v>6.484567494777622</v>
       </c>
       <c r="N4" t="n">
-        <v>71.38978940578669</v>
+        <v>70.98563696673678</v>
       </c>
       <c r="O4" t="n">
-        <v>8.449247860359328</v>
+        <v>8.425297440846631</v>
       </c>
       <c r="P4" t="n">
-        <v>356.6907512891788</v>
+        <v>356.7098387612518</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16967,28 +17051,28 @@
         <v>0.0625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.121498411081178</v>
+        <v>0.1238235817473978</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008517497829492515</v>
+        <v>0.008955698950462221</v>
       </c>
       <c r="M5" t="n">
-        <v>7.67951530227105</v>
+        <v>7.643980507175106</v>
       </c>
       <c r="N5" t="n">
-        <v>92.61312786838531</v>
+        <v>92.07946312768959</v>
       </c>
       <c r="O5" t="n">
-        <v>9.623571471568406</v>
+        <v>9.595804454431613</v>
       </c>
       <c r="P5" t="n">
-        <v>359.7151721243344</v>
+        <v>359.6917061628941</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17045,28 +17129,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04326845920003106</v>
+        <v>0.04931232002783424</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008780785447103368</v>
+        <v>0.001152576355253787</v>
       </c>
       <c r="M6" t="n">
-        <v>8.282071842308985</v>
+        <v>8.261521535051722</v>
       </c>
       <c r="N6" t="n">
-        <v>117.6769752293252</v>
+        <v>117.1579575390778</v>
       </c>
       <c r="O6" t="n">
-        <v>10.84790188143888</v>
+        <v>10.82395295347674</v>
       </c>
       <c r="P6" t="n">
-        <v>358.4914301612523</v>
+        <v>358.431061683754</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17123,28 +17207,28 @@
         <v>0.0504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0248557523662318</v>
+        <v>0.02675857935728554</v>
       </c>
       <c r="J7" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K7" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002788816263284977</v>
+        <v>0.000327324785360128</v>
       </c>
       <c r="M7" t="n">
-        <v>8.533098733687664</v>
+        <v>8.491768035651317</v>
       </c>
       <c r="N7" t="n">
-        <v>119.2326379922517</v>
+        <v>118.5383354899471</v>
       </c>
       <c r="O7" t="n">
-        <v>10.91936985325855</v>
+        <v>10.88753119352349</v>
       </c>
       <c r="P7" t="n">
-        <v>345.4957755537333</v>
+        <v>345.4764675431394</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17201,28 +17285,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01653776564705928</v>
+        <v>0.01667128795257338</v>
       </c>
       <c r="J8" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K8" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001029964452117227</v>
+        <v>0.0001057054675008828</v>
       </c>
       <c r="M8" t="n">
-        <v>9.289212073951257</v>
+        <v>9.284703324010941</v>
       </c>
       <c r="N8" t="n">
-        <v>143.8934053727218</v>
+        <v>143.4699148986864</v>
       </c>
       <c r="O8" t="n">
-        <v>11.99555773495846</v>
+        <v>11.97789275702059</v>
       </c>
       <c r="P8" t="n">
-        <v>353.619031270142</v>
+        <v>353.6175878836785</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17260,7 +17344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33977,6 +34061,96 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-36.73733552205319,175.81132714241338</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-36.73755561111262,175.80933357282615</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-36.737687271982686,175.8084512703554</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-36.73786645114609,175.80759441357807</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-36.73804537677649,175.8066970705828</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-36.738408307344734,175.80591722775688</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-36.73730621802466,175.81134295315337</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-36.73745147439402,175.81026035791393</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-36.73757176002756,175.809334897848</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-36.737685864483275,175.808450935523</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-36.737884189788595,175.80760340063642</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-36.73807038467258,175.8067147812427</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-36.73853924356483,175.80601766697936</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0162/nzd0162.xlsx
+++ b/data/nzd0162/nzd0162.xlsx
@@ -16808,13 +16808,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0624</v>
+        <v>0.1263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0912</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1450435399871237</v>
@@ -16886,13 +16886,13 @@
         <v>0.1649070362942094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0516</v>
+        <v>0.1319</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0646</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.0306098314251237</v>
@@ -16964,13 +16964,13 @@
         <v>0.3316197458304915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0574</v>
+        <v>0.0725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.066</v>
+        <v>0.1341</v>
       </c>
       <c r="I4" t="n">
         <v>0.05087267674393821</v>
@@ -17045,10 +17045,10 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.052</v>
+        <v>0.0481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0625</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0.1238135762749017</v>
@@ -17120,13 +17120,13 @@
         <v>0.6657126365258657</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0539</v>
+        <v>0.0842</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.0493571075827596</v>
@@ -17198,13 +17198,13 @@
         <v>0.832992457875719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0443</v>
+        <v>0.0557</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0504</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>0.02679489356598776</v>
@@ -17276,13 +17276,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0318</v>
+        <v>0.0338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0363</v>
+        <v>0.0581</v>
       </c>
       <c r="I8" t="n">
         <v>0.01665048757027886</v>
